--- a/biology/Médecine/Muscle_semi-épineux/Muscle_semi-épineux.xlsx
+++ b/biology/Médecine/Muscle_semi-épineux/Muscle_semi-épineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_semi-%C3%A9pineux</t>
+          <t>Muscle_semi-épineux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe des muscles semi-épineux (ou muscles demi-épineux selon l'ancienne terminologie) comprend  trois muscles appartenant au groupe des muscles transversaires épineux :
 Le muscle semi-épineux de la tête
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_semi-%C3%A9pineux</t>
+          <t>Muscle_semi-épineux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Muscle semi-épineux de la tête</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir l'article détaillé.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_semi-%C3%A9pineux</t>
+          <t>Muscle_semi-épineux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,21 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description
-Origine
-Le muscle semi-épineux du cou (ou muscle demi-épineux de la nuque selon l'ancienne terminologie) s’insère par une série de fibres musculo-tendineuses sur les apophyses transverses des 5 ou 6 premières vertèbres thoraciques.
-Trajet
-Le muscle semi-épineux du cou est plus épais que le muscle semi-épineux du thorax.
-Terminaison
-Il se termine par des fibres musculo-tendineuses sur les apophyses épineuses de  toutes les vertèbres cervicales.
-Le faisceau relié à l'atlas étant le plus long est principalement musculaire.
-Rapports
-Innervation
-Il est innervé par des rameaux des branches postérieures des nerfs spinaux.
-Vascularisation
-Action
-Par contraction bilatérale : extension de la colonne cervicale.
-Par contraction mono latérale :  inclinaison homolatérale de la colonne cervicale.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle semi-épineux du cou (ou muscle demi-épineux de la nuque selon l'ancienne terminologie) s’insère par une série de fibres musculo-tendineuses sur les apophyses transverses des 5 ou 6 premières vertèbres thoraciques.
 </t>
         </is>
       </c>
@@ -572,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_semi-%C3%A9pineux</t>
+          <t>Muscle_semi-épineux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,24 +597,344 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Muscle semi-épineux du cou</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle semi-épineux du cou est plus épais que le muscle semi-épineux du thorax.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_semi-épineux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_semi-%C3%A9pineux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Muscle semi-épineux du cou</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine par des fibres musculo-tendineuses sur les apophyses épineuses de  toutes les vertèbres cervicales.
+Le faisceau relié à l'atlas étant le plus long est principalement musculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_semi-épineux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_semi-%C3%A9pineux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Muscle semi-épineux du cou</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par des rameaux des branches postérieures des nerfs spinaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_semi-épineux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_semi-%C3%A9pineux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Muscle semi-épineux du cou</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par contraction bilatérale : extension de la colonne cervicale.
+Par contraction mono latérale :  inclinaison homolatérale de la colonne cervicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_semi-épineux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_semi-%C3%A9pineux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Muscle semi-épineux du thorax</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Description
-Origine
-Le muscle semi-épineux du thorax (ou muscle demi-épineux du dos selon l'ancienne terminologie) naît d'une série de petits tendons sur les apophyses transverses de la sixième à la dixième vertèbre thoracique
-Trajet
-Le muscle semi-épineux du thorax est constitué de faisceaux musculaires minces et étroits intercalés entre des tendons très longs.
-Terminaison
-Il se termine par des tendons sur les apophyses épineuses des quatre vertèbres thoraciques supérieures et des deux vertèbres cervicales inférieures.
-Rapports
-Innervation
-Il est innervé par des rameaux des branches postérieures des nerfs spinaux.
-Vascularisation
-Action
-Par contraction bilatérale : extension de la colonne thoracique.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle semi-épineux du thorax (ou muscle demi-épineux du dos selon l'ancienne terminologie) naît d'une série de petits tendons sur les apophyses transverses de la sixième à la dixième vertèbre thoracique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscle_semi-épineux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_semi-%C3%A9pineux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Muscle semi-épineux du thorax</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle semi-épineux du thorax est constitué de faisceaux musculaires minces et étroits intercalés entre des tendons très longs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muscle_semi-épineux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_semi-%C3%A9pineux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Muscle semi-épineux du thorax</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine par des tendons sur les apophyses épineuses des quatre vertèbres thoraciques supérieures et des deux vertèbres cervicales inférieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muscle_semi-épineux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_semi-%C3%A9pineux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Muscle semi-épineux du thorax</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par des rameaux des branches postérieures des nerfs spinaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Muscle_semi-épineux</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_semi-%C3%A9pineux</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Muscle semi-épineux du thorax</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par contraction bilatérale : extension de la colonne thoracique.
 Par contraction mono latérale :  inclinaison homolatérale de la colonne thoracique.
 </t>
         </is>
